--- a/data/pca/factorExposure/factorExposure_2011-11-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.008230113364029549</v>
+        <v>0.01137156722302449</v>
       </c>
       <c r="C2">
-        <v>0.0330986852658529</v>
+        <v>-0.02178099165382436</v>
       </c>
       <c r="D2">
-        <v>-0.01444932201470261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0247975971011433</v>
+      </c>
+      <c r="E2">
+        <v>0.009124868258828368</v>
+      </c>
+      <c r="F2">
+        <v>0.03757076394552392</v>
+      </c>
+      <c r="G2">
+        <v>-0.001157995966411439</v>
+      </c>
+      <c r="H2">
+        <v>-0.01992780304401397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0750553551761909</v>
+        <v>0.08868593377387092</v>
       </c>
       <c r="C4">
-        <v>0.06367816156167841</v>
+        <v>-0.01614675680984941</v>
       </c>
       <c r="D4">
-        <v>-0.07086520058980661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08262727917367423</v>
+      </c>
+      <c r="E4">
+        <v>0.009163869609543558</v>
+      </c>
+      <c r="F4">
+        <v>0.04296359022790187</v>
+      </c>
+      <c r="G4">
+        <v>0.02248840244304172</v>
+      </c>
+      <c r="H4">
+        <v>0.03143611310445343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1100186296869958</v>
+        <v>0.1230242750445107</v>
       </c>
       <c r="C6">
-        <v>0.0617151770290581</v>
+        <v>-0.0384347651733265</v>
       </c>
       <c r="D6">
-        <v>0.0008241774762480741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02463994025331433</v>
+      </c>
+      <c r="E6">
+        <v>-0.02920683221119165</v>
+      </c>
+      <c r="F6">
+        <v>0.04096824986922878</v>
+      </c>
+      <c r="G6">
+        <v>0.05202785725569537</v>
+      </c>
+      <c r="H6">
+        <v>-0.1821592434066229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05675836231438403</v>
+        <v>0.06581305732996728</v>
       </c>
       <c r="C7">
-        <v>0.04260002642376478</v>
+        <v>-0.006211863824888409</v>
       </c>
       <c r="D7">
-        <v>-0.03139799707358872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05838604015819446</v>
+      </c>
+      <c r="E7">
+        <v>0.02342277776015433</v>
+      </c>
+      <c r="F7">
+        <v>0.04604763392405931</v>
+      </c>
+      <c r="G7">
+        <v>-0.02751503404839193</v>
+      </c>
+      <c r="H7">
+        <v>0.01055971348601776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03825299378047502</v>
+        <v>0.04346134860304688</v>
       </c>
       <c r="C8">
-        <v>0.01490950643522178</v>
+        <v>-0.0003306300497137236</v>
       </c>
       <c r="D8">
-        <v>-0.06370583688208468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03025280027875596</v>
+      </c>
+      <c r="E8">
+        <v>0.006621925423712838</v>
+      </c>
+      <c r="F8">
+        <v>0.07525437730389901</v>
+      </c>
+      <c r="G8">
+        <v>0.08701441958759244</v>
+      </c>
+      <c r="H8">
+        <v>-0.01022808872906376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07231343705164686</v>
+        <v>0.08132592814102481</v>
       </c>
       <c r="C9">
-        <v>0.0506097847103869</v>
+        <v>-0.007265246892418327</v>
       </c>
       <c r="D9">
-        <v>-0.0673849637844204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07164373500292508</v>
+      </c>
+      <c r="E9">
+        <v>0.02180036037072629</v>
+      </c>
+      <c r="F9">
+        <v>0.0378320332500207</v>
+      </c>
+      <c r="G9">
+        <v>0.03331333939368692</v>
+      </c>
+      <c r="H9">
+        <v>0.03355247039814688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02546920755283547</v>
+        <v>0.05112264028451714</v>
       </c>
       <c r="C10">
-        <v>0.01071540773251875</v>
+        <v>-0.1145917211535782</v>
       </c>
       <c r="D10">
-        <v>0.171577676584885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1536314695559627</v>
+      </c>
+      <c r="E10">
+        <v>0.0284133809106345</v>
+      </c>
+      <c r="F10">
+        <v>0.05743402387695216</v>
+      </c>
+      <c r="G10">
+        <v>-0.03111411819321139</v>
+      </c>
+      <c r="H10">
+        <v>-0.03445021893107902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06665418683460561</v>
+        <v>0.0728233268884529</v>
       </c>
       <c r="C11">
-        <v>0.04681407156370984</v>
+        <v>-0.001943113356013097</v>
       </c>
       <c r="D11">
-        <v>-0.05793846727636909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06680986558268166</v>
+      </c>
+      <c r="E11">
+        <v>0.003613456874468322</v>
+      </c>
+      <c r="F11">
+        <v>0.03558153465385216</v>
+      </c>
+      <c r="G11">
+        <v>0.0429428149600501</v>
+      </c>
+      <c r="H11">
+        <v>0.05756165682706577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06025024765234788</v>
+        <v>0.06784610447680689</v>
       </c>
       <c r="C12">
-        <v>0.05598573597939947</v>
+        <v>-0.01364379547826549</v>
       </c>
       <c r="D12">
-        <v>-0.04530358281946197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.06005350989963464</v>
+      </c>
+      <c r="E12">
+        <v>0.009851098978543036</v>
+      </c>
+      <c r="F12">
+        <v>0.02512141604989297</v>
+      </c>
+      <c r="G12">
+        <v>0.01899627138232113</v>
+      </c>
+      <c r="H12">
+        <v>0.02515715285061346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06934229923162179</v>
+        <v>0.06987267096151914</v>
       </c>
       <c r="C13">
-        <v>0.05184004938598203</v>
+        <v>-0.01496325847210739</v>
       </c>
       <c r="D13">
-        <v>-0.03516653438371991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04668852715546703</v>
+      </c>
+      <c r="E13">
+        <v>0.01025876905891388</v>
+      </c>
+      <c r="F13">
+        <v>0.01991351463994542</v>
+      </c>
+      <c r="G13">
+        <v>0.01951780287510445</v>
+      </c>
+      <c r="H13">
+        <v>0.0466843536587666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0294503027651482</v>
+        <v>0.03951271226995894</v>
       </c>
       <c r="C14">
-        <v>0.0311664295990171</v>
+        <v>-0.02282763821798962</v>
       </c>
       <c r="D14">
-        <v>0.004059895193769565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02296775755177512</v>
+      </c>
+      <c r="E14">
+        <v>0.02396057564175188</v>
+      </c>
+      <c r="F14">
+        <v>0.01809291481013103</v>
+      </c>
+      <c r="G14">
+        <v>0.01513830676673131</v>
+      </c>
+      <c r="H14">
+        <v>0.0649000167027601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04069967452249589</v>
+        <v>0.03937319021198856</v>
       </c>
       <c r="C15">
-        <v>0.01129868648696119</v>
+        <v>0.00217280306645042</v>
       </c>
       <c r="D15">
-        <v>-0.02542127937242184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0124636249267936</v>
+      </c>
+      <c r="E15">
+        <v>0.02994212562708032</v>
+      </c>
+      <c r="F15">
+        <v>0.004083597142903511</v>
+      </c>
+      <c r="G15">
+        <v>0.03138745118838859</v>
+      </c>
+      <c r="H15">
+        <v>0.03262283782482724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05703432830491199</v>
+        <v>0.06949390221906698</v>
       </c>
       <c r="C16">
-        <v>0.04254756532421821</v>
+        <v>-0.003229823737752338</v>
       </c>
       <c r="D16">
-        <v>-0.05582486115647892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06744088360660752</v>
+      </c>
+      <c r="E16">
+        <v>0.005393410659613429</v>
+      </c>
+      <c r="F16">
+        <v>0.03066822281631608</v>
+      </c>
+      <c r="G16">
+        <v>0.01796512592282348</v>
+      </c>
+      <c r="H16">
+        <v>0.04256073777249739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06231028716260004</v>
+        <v>0.06269300555973192</v>
       </c>
       <c r="C20">
-        <v>0.03152482726232118</v>
+        <v>0.003458655335814164</v>
       </c>
       <c r="D20">
-        <v>-0.04706509601659207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04316909077457422</v>
+      </c>
+      <c r="E20">
+        <v>0.006027655202671821</v>
+      </c>
+      <c r="F20">
+        <v>0.02567991915262891</v>
+      </c>
+      <c r="G20">
+        <v>0.01984083381768449</v>
+      </c>
+      <c r="H20">
+        <v>0.04087821365185304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03220635076748547</v>
+        <v>0.02747713539517886</v>
       </c>
       <c r="C21">
-        <v>0.01127668154084984</v>
+        <v>0.007412508637821985</v>
       </c>
       <c r="D21">
-        <v>-0.01029231776097169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01866113483349517</v>
+      </c>
+      <c r="E21">
+        <v>0.03959739794790776</v>
+      </c>
+      <c r="F21">
+        <v>-0.01064487437909228</v>
+      </c>
+      <c r="G21">
+        <v>0.007600813566146032</v>
+      </c>
+      <c r="H21">
+        <v>-0.0447195012727172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08341039521790201</v>
+        <v>0.07467590088778434</v>
       </c>
       <c r="C22">
-        <v>0.07831045877344607</v>
+        <v>-0.00676095983099742</v>
       </c>
       <c r="D22">
-        <v>-0.1304900253843899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1046239893450341</v>
+      </c>
+      <c r="E22">
+        <v>0.6038943279017029</v>
+      </c>
+      <c r="F22">
+        <v>-0.02987898938681007</v>
+      </c>
+      <c r="G22">
+        <v>-0.1844136346874354</v>
+      </c>
+      <c r="H22">
+        <v>-0.1437422673337277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08434036910879568</v>
+        <v>0.07562634960500399</v>
       </c>
       <c r="C23">
-        <v>0.07877113341251966</v>
+        <v>-0.006636582251804651</v>
       </c>
       <c r="D23">
-        <v>-0.1314044591711247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1059074527137749</v>
+      </c>
+      <c r="E23">
+        <v>0.6057679306359259</v>
+      </c>
+      <c r="F23">
+        <v>-0.02942653467046625</v>
+      </c>
+      <c r="G23">
+        <v>-0.1790303177644505</v>
+      </c>
+      <c r="H23">
+        <v>-0.1424988888803612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07304136592070926</v>
+        <v>0.07929006567374612</v>
       </c>
       <c r="C24">
-        <v>0.05462293387735086</v>
+        <v>-0.008010775604834781</v>
       </c>
       <c r="D24">
-        <v>-0.06024080821549145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06810318106426172</v>
+      </c>
+      <c r="E24">
+        <v>0.01208692463013038</v>
+      </c>
+      <c r="F24">
+        <v>0.03704945118710272</v>
+      </c>
+      <c r="G24">
+        <v>0.0376815046630574</v>
+      </c>
+      <c r="H24">
+        <v>0.02678502215890996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07194121468906121</v>
+        <v>0.0779222640664505</v>
       </c>
       <c r="C25">
-        <v>0.05881188841203106</v>
+        <v>-0.01569666043933542</v>
       </c>
       <c r="D25">
-        <v>-0.0553995888913594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06239187696973984</v>
+      </c>
+      <c r="E25">
+        <v>0.01812540940033348</v>
+      </c>
+      <c r="F25">
+        <v>0.03427787357527903</v>
+      </c>
+      <c r="G25">
+        <v>0.04200902498216069</v>
+      </c>
+      <c r="H25">
+        <v>0.03706706420475669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04498633014703805</v>
+        <v>0.04582652379846201</v>
       </c>
       <c r="C26">
-        <v>0.01474288946987952</v>
+        <v>0.002909158015644156</v>
       </c>
       <c r="D26">
-        <v>-0.01349462631435472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01850686755290407</v>
+      </c>
+      <c r="E26">
+        <v>0.04340398228051569</v>
+      </c>
+      <c r="F26">
+        <v>0.02675285430327438</v>
+      </c>
+      <c r="G26">
+        <v>0.02654867079946672</v>
+      </c>
+      <c r="H26">
+        <v>0.04807225630715717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04164442511696331</v>
+        <v>0.07230329747088932</v>
       </c>
       <c r="C28">
-        <v>0.04368653069836961</v>
+        <v>-0.1975135909890174</v>
       </c>
       <c r="D28">
-        <v>0.3106762977180195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2502869503381487</v>
+      </c>
+      <c r="E28">
+        <v>0.03315403290947038</v>
+      </c>
+      <c r="F28">
+        <v>0.05200328814505051</v>
+      </c>
+      <c r="G28">
+        <v>0.02477131271062462</v>
+      </c>
+      <c r="H28">
+        <v>-0.06407533416131442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04312431470202181</v>
+        <v>0.04889067004474346</v>
       </c>
       <c r="C29">
-        <v>0.04249205055731763</v>
+        <v>-0.02733899859914762</v>
       </c>
       <c r="D29">
-        <v>0.00103119029834576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02465555463757476</v>
+      </c>
+      <c r="E29">
+        <v>0.04879779132458741</v>
+      </c>
+      <c r="F29">
+        <v>0.02204292038117533</v>
+      </c>
+      <c r="G29">
+        <v>0.003407407789601215</v>
+      </c>
+      <c r="H29">
+        <v>0.08731748905243739</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1303130478391873</v>
+        <v>0.1278217991266528</v>
       </c>
       <c r="C30">
-        <v>0.1054226207315879</v>
+        <v>-0.03069012539270441</v>
       </c>
       <c r="D30">
-        <v>-0.102229375014281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09993285131077283</v>
+      </c>
+      <c r="E30">
+        <v>0.05524070988156588</v>
+      </c>
+      <c r="F30">
+        <v>0.01935772035292119</v>
+      </c>
+      <c r="G30">
+        <v>0.07880429135997565</v>
+      </c>
+      <c r="H30">
+        <v>-0.05736357634960901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04898328942022399</v>
+        <v>0.04878667787404331</v>
       </c>
       <c r="C31">
-        <v>0.02574728735687006</v>
+        <v>0.002644424482945007</v>
       </c>
       <c r="D31">
-        <v>-0.0188572412139853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03612638194049171</v>
+      </c>
+      <c r="E31">
+        <v>0.0230201247601852</v>
+      </c>
+      <c r="F31">
+        <v>0.01227681776458675</v>
+      </c>
+      <c r="G31">
+        <v>-0.006938592536523245</v>
+      </c>
+      <c r="H31">
+        <v>0.06620617940428702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0353741542661607</v>
+        <v>0.03852311473044611</v>
       </c>
       <c r="C32">
-        <v>0.02888901414157993</v>
+        <v>-0.02117108953303868</v>
       </c>
       <c r="D32">
-        <v>-0.02548148335509451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01531551687514653</v>
+      </c>
+      <c r="E32">
+        <v>0.045827714219433</v>
+      </c>
+      <c r="F32">
+        <v>0.001061077610161558</v>
+      </c>
+      <c r="G32">
+        <v>0.04524335878495468</v>
+      </c>
+      <c r="H32">
+        <v>0.009075820320941926</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08475817381295757</v>
+        <v>0.0935860208118581</v>
       </c>
       <c r="C33">
-        <v>0.04930353030986515</v>
+        <v>-0.006394022215773415</v>
       </c>
       <c r="D33">
-        <v>-0.04814538937878693</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05786263794223228</v>
+      </c>
+      <c r="E33">
+        <v>0.01284562662648499</v>
+      </c>
+      <c r="F33">
+        <v>0.001390204972353475</v>
+      </c>
+      <c r="G33">
+        <v>0.004945293317660805</v>
+      </c>
+      <c r="H33">
+        <v>0.05612508990236605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0580562299752935</v>
+        <v>0.06711095553933119</v>
       </c>
       <c r="C34">
-        <v>0.03040633088044934</v>
+        <v>0.002368866854319201</v>
       </c>
       <c r="D34">
-        <v>-0.05324344657707658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0493377534737591</v>
+      </c>
+      <c r="E34">
+        <v>0.01264694990096768</v>
+      </c>
+      <c r="F34">
+        <v>0.02191094599170372</v>
+      </c>
+      <c r="G34">
+        <v>0.02492651236406669</v>
+      </c>
+      <c r="H34">
+        <v>0.04491562677301089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03724114005382646</v>
+        <v>0.0378855953318984</v>
       </c>
       <c r="C35">
-        <v>0.01752154112754004</v>
+        <v>-0.00125850338055939</v>
       </c>
       <c r="D35">
-        <v>-0.01819348014054217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02019077162251272</v>
+      </c>
+      <c r="E35">
+        <v>0.02065809008356304</v>
+      </c>
+      <c r="F35">
+        <v>-0.01421769586164201</v>
+      </c>
+      <c r="G35">
+        <v>-0.004112898457429315</v>
+      </c>
+      <c r="H35">
+        <v>0.03271182219259553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02606756572163086</v>
+        <v>0.02797348852724626</v>
       </c>
       <c r="C36">
-        <v>0.02131635750982601</v>
+        <v>-0.006267559199909235</v>
       </c>
       <c r="D36">
-        <v>-0.01970629405244202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02280379919736763</v>
+      </c>
+      <c r="E36">
+        <v>0.03242292442835406</v>
+      </c>
+      <c r="F36">
+        <v>0.02823166490870079</v>
+      </c>
+      <c r="G36">
+        <v>0.0128597081995814</v>
+      </c>
+      <c r="H36">
+        <v>0.04006017990235469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05529764173399122</v>
+        <v>0.0497110332991511</v>
       </c>
       <c r="C38">
-        <v>0.01342032963884879</v>
+        <v>0.0118345830528117</v>
       </c>
       <c r="D38">
-        <v>-0.003848388420182478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02174853051694082</v>
+      </c>
+      <c r="E38">
+        <v>0.04912000561763859</v>
+      </c>
+      <c r="F38">
+        <v>-0.002201982480171588</v>
+      </c>
+      <c r="G38">
+        <v>0.003608908530981122</v>
+      </c>
+      <c r="H38">
+        <v>0.0294594463460686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08844154872700788</v>
+        <v>0.09940285595152965</v>
       </c>
       <c r="C39">
-        <v>0.08237109061502085</v>
+        <v>-0.03135995705411982</v>
       </c>
       <c r="D39">
-        <v>-0.04530191503445827</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07979113701584313</v>
+      </c>
+      <c r="E39">
+        <v>0.002845818186487427</v>
+      </c>
+      <c r="F39">
+        <v>0.005851151220658155</v>
+      </c>
+      <c r="G39">
+        <v>0.05041718451190958</v>
+      </c>
+      <c r="H39">
+        <v>0.01404906425346028</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07834561378463459</v>
+        <v>0.05835999425678291</v>
       </c>
       <c r="C40">
-        <v>0.04103932670549532</v>
+        <v>0.01039439127587447</v>
       </c>
       <c r="D40">
-        <v>-0.01169653064180381</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03561988953982614</v>
+      </c>
+      <c r="E40">
+        <v>0.04434413062700064</v>
+      </c>
+      <c r="F40">
+        <v>-0.03744961885128192</v>
+      </c>
+      <c r="G40">
+        <v>0.05932427634681122</v>
+      </c>
+      <c r="H40">
+        <v>-0.0785276868864183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04661169381783066</v>
+        <v>0.04596899382467408</v>
       </c>
       <c r="C41">
-        <v>0.02021259952988796</v>
+        <v>0.008604884115251133</v>
       </c>
       <c r="D41">
-        <v>-0.03181438717023938</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0339839594216137</v>
+      </c>
+      <c r="E41">
+        <v>0.001869572706879555</v>
+      </c>
+      <c r="F41">
+        <v>-0.01310431680055526</v>
+      </c>
+      <c r="G41">
+        <v>0.005844646904571526</v>
+      </c>
+      <c r="H41">
+        <v>0.03610490842788245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05326644385549886</v>
+        <v>0.0592375155562116</v>
       </c>
       <c r="C43">
-        <v>0.03206280200038514</v>
+        <v>-0.00652597205341989</v>
       </c>
       <c r="D43">
-        <v>-0.007626791265211901</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0360906014117084</v>
+      </c>
+      <c r="E43">
+        <v>0.01921392237099936</v>
+      </c>
+      <c r="F43">
+        <v>0.0132999421196536</v>
+      </c>
+      <c r="G43">
+        <v>-0.01930831217544749</v>
+      </c>
+      <c r="H43">
+        <v>0.05583853883020364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09612231128007133</v>
+        <v>0.09494259629837352</v>
       </c>
       <c r="C44">
-        <v>0.0350004590869417</v>
+        <v>0.009553703832217588</v>
       </c>
       <c r="D44">
-        <v>-0.05040556867731412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05428365960275383</v>
+      </c>
+      <c r="E44">
+        <v>0.07757641786283519</v>
+      </c>
+      <c r="F44">
+        <v>0.08401859613679789</v>
+      </c>
+      <c r="G44">
+        <v>0.06958810499188409</v>
+      </c>
+      <c r="H44">
+        <v>0.05146111311786195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02561457573824488</v>
+        <v>0.03837215735145655</v>
       </c>
       <c r="C46">
-        <v>0.023377538329652</v>
+        <v>-0.00689225910506708</v>
       </c>
       <c r="D46">
-        <v>-0.03152635217337524</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0412181296476882</v>
+      </c>
+      <c r="E46">
+        <v>0.02985801127181566</v>
+      </c>
+      <c r="F46">
+        <v>0.01677635013550458</v>
+      </c>
+      <c r="G46">
+        <v>-0.003983575500668344</v>
+      </c>
+      <c r="H46">
+        <v>0.03440726711881812</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03450598812086723</v>
+        <v>0.0422338127079635</v>
       </c>
       <c r="C47">
-        <v>0.02249934784166617</v>
+        <v>-0.01289095972182939</v>
       </c>
       <c r="D47">
-        <v>0.005279421431249421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0159697419280842</v>
+      </c>
+      <c r="E47">
+        <v>0.04019525584324021</v>
+      </c>
+      <c r="F47">
+        <v>-0.007496494035844938</v>
+      </c>
+      <c r="G47">
+        <v>-0.03340723713590962</v>
+      </c>
+      <c r="H47">
+        <v>0.02108928449524753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03657259764197552</v>
+        <v>0.03963833482453776</v>
       </c>
       <c r="C48">
-        <v>0.03017662835743169</v>
+        <v>-0.01056705326058628</v>
       </c>
       <c r="D48">
-        <v>-0.02919437172953666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02418768211071821</v>
+      </c>
+      <c r="E48">
+        <v>0.03809752381562558</v>
+      </c>
+      <c r="F48">
+        <v>0.009993162176941637</v>
+      </c>
+      <c r="G48">
+        <v>0.02202654685971083</v>
+      </c>
+      <c r="H48">
+        <v>0.01950685301838515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1611128244357608</v>
+        <v>0.1962889755353995</v>
       </c>
       <c r="C49">
-        <v>0.05291989048748925</v>
+        <v>-0.0259487026812372</v>
       </c>
       <c r="D49">
-        <v>-0.004479683333793676</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0351888813092997</v>
+      </c>
+      <c r="E49">
+        <v>-0.1825776380977764</v>
+      </c>
+      <c r="F49">
+        <v>0.02975692347159366</v>
+      </c>
+      <c r="G49">
+        <v>-0.1335688268188117</v>
+      </c>
+      <c r="H49">
+        <v>-0.2433426166092905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04566580141983179</v>
+        <v>0.04846495249603347</v>
       </c>
       <c r="C50">
-        <v>0.03008398705346084</v>
+        <v>-0.003208009752085085</v>
       </c>
       <c r="D50">
-        <v>-0.03020920960322059</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03989678468762198</v>
+      </c>
+      <c r="E50">
+        <v>0.02643579265892171</v>
+      </c>
+      <c r="F50">
+        <v>0.006506273238518964</v>
+      </c>
+      <c r="G50">
+        <v>0.0003484714800158862</v>
+      </c>
+      <c r="H50">
+        <v>0.07457665534740754</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02401186364215342</v>
+        <v>0.03386043830559028</v>
       </c>
       <c r="C51">
-        <v>0.004780940754598399</v>
+        <v>-0.003882381456028526</v>
       </c>
       <c r="D51">
-        <v>0.002681305746497871</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.001546011638066006</v>
+      </c>
+      <c r="E51">
+        <v>0.005645219889941404</v>
+      </c>
+      <c r="F51">
+        <v>0.01389456202665642</v>
+      </c>
+      <c r="G51">
+        <v>-0.02163845578555885</v>
+      </c>
+      <c r="H51">
+        <v>-0.02314882236823596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1526216853310444</v>
+        <v>0.1605619557348119</v>
       </c>
       <c r="C53">
-        <v>0.08367962817826979</v>
+        <v>-0.04273438514921748</v>
       </c>
       <c r="D53">
-        <v>0.01256070243668131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03757789254531015</v>
+      </c>
+      <c r="E53">
+        <v>-0.02954209847391495</v>
+      </c>
+      <c r="F53">
+        <v>-0.002006186565498617</v>
+      </c>
+      <c r="G53">
+        <v>-0.01497083789963796</v>
+      </c>
+      <c r="H53">
+        <v>0.2018987839071097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05818675722096679</v>
+        <v>0.06000998165177213</v>
       </c>
       <c r="C54">
-        <v>0.0343048565927879</v>
+        <v>-0.01729827807952367</v>
       </c>
       <c r="D54">
-        <v>-0.01851757852192297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02010354550995448</v>
+      </c>
+      <c r="E54">
+        <v>0.05656961651499468</v>
+      </c>
+      <c r="F54">
+        <v>0.01911849414462394</v>
+      </c>
+      <c r="G54">
+        <v>0.05552882654218655</v>
+      </c>
+      <c r="H54">
+        <v>0.04077297659419003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09809215918275155</v>
+        <v>0.1008319357794975</v>
       </c>
       <c r="C55">
-        <v>0.05480349545273348</v>
+        <v>-0.01987288926064962</v>
       </c>
       <c r="D55">
-        <v>-0.006317915503669738</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03671205152226079</v>
+      </c>
+      <c r="E55">
+        <v>-0.003473335960994231</v>
+      </c>
+      <c r="F55">
+        <v>0.0174195071542434</v>
+      </c>
+      <c r="G55">
+        <v>0.007575589769555341</v>
+      </c>
+      <c r="H55">
+        <v>0.1588489090923647</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1490736342877843</v>
+        <v>0.1549024541106808</v>
       </c>
       <c r="C56">
-        <v>0.08664020447385395</v>
+        <v>-0.0328392564843342</v>
       </c>
       <c r="D56">
-        <v>0.008162588233609588</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05611500052354564</v>
+      </c>
+      <c r="E56">
+        <v>-0.01109095827440126</v>
+      </c>
+      <c r="F56">
+        <v>0.01830273622975289</v>
+      </c>
+      <c r="G56">
+        <v>-0.006762519970709512</v>
+      </c>
+      <c r="H56">
+        <v>0.2076856082412843</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.131484627330844</v>
+        <v>0.09802774523842843</v>
       </c>
       <c r="C58">
-        <v>-0.0226350004069159</v>
+        <v>0.07725393926748604</v>
       </c>
       <c r="D58">
-        <v>-0.05000163012349596</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.003737713656182263</v>
+      </c>
+      <c r="E58">
+        <v>0.1233012459846993</v>
+      </c>
+      <c r="F58">
+        <v>0.04141428916592898</v>
+      </c>
+      <c r="G58">
+        <v>-0.07981883526191871</v>
+      </c>
+      <c r="H58">
+        <v>-0.1902553137215419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1177699148718225</v>
+        <v>0.1487855230870613</v>
       </c>
       <c r="C59">
-        <v>0.05457000065923197</v>
+        <v>-0.2178800450544456</v>
       </c>
       <c r="D59">
-        <v>0.4145330589844021</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2966613705577369</v>
+      </c>
+      <c r="E59">
+        <v>0.0275188220164535</v>
+      </c>
+      <c r="F59">
+        <v>0.005402562116538282</v>
+      </c>
+      <c r="G59">
+        <v>0.005823099429519751</v>
+      </c>
+      <c r="H59">
+        <v>0.02034418836525114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2058692089068484</v>
+        <v>0.2377409818899408</v>
       </c>
       <c r="C60">
-        <v>0.1029758856554434</v>
+        <v>-0.05029249943451209</v>
       </c>
       <c r="D60">
-        <v>0.004217912227494246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.06272622326267477</v>
+      </c>
+      <c r="E60">
+        <v>-0.1312260561068667</v>
+      </c>
+      <c r="F60">
+        <v>0.04305058070356454</v>
+      </c>
+      <c r="G60">
+        <v>-0.01703986967944998</v>
+      </c>
+      <c r="H60">
+        <v>-0.1583729193130325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07559677496516574</v>
+        <v>0.08443721539150226</v>
       </c>
       <c r="C61">
-        <v>0.05152112069947276</v>
+        <v>-0.01664903304766733</v>
       </c>
       <c r="D61">
-        <v>-0.02978656806283132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05270305564688549</v>
+      </c>
+      <c r="E61">
+        <v>0.01019894628625752</v>
+      </c>
+      <c r="F61">
+        <v>0.01459243823511938</v>
+      </c>
+      <c r="G61">
+        <v>0.02882800316739511</v>
+      </c>
+      <c r="H61">
+        <v>0.06790812036815098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1296323556697565</v>
+        <v>0.1375229488627689</v>
       </c>
       <c r="C62">
-        <v>0.05037968812080972</v>
+        <v>-0.006088294092873517</v>
       </c>
       <c r="D62">
-        <v>0.005074297685678497</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04517166998922315</v>
+      </c>
+      <c r="E62">
+        <v>-0.04037960605616781</v>
+      </c>
+      <c r="F62">
+        <v>-0.02791794387269883</v>
+      </c>
+      <c r="G62">
+        <v>0.02226568203105538</v>
+      </c>
+      <c r="H62">
+        <v>0.2035897632469104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05122672236681041</v>
+        <v>0.04888873346996872</v>
       </c>
       <c r="C63">
-        <v>0.02642246347573993</v>
+        <v>-0.003882977121557275</v>
       </c>
       <c r="D63">
-        <v>-0.02613048920955712</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02679219104496695</v>
+      </c>
+      <c r="E63">
+        <v>0.03805302317136442</v>
+      </c>
+      <c r="F63">
+        <v>0.0006289805865075006</v>
+      </c>
+      <c r="G63">
+        <v>0.03604455462772013</v>
+      </c>
+      <c r="H63">
+        <v>0.03865063840432663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1058404165481647</v>
+        <v>0.1114900823946485</v>
       </c>
       <c r="C64">
-        <v>0.04689455857755288</v>
+        <v>-0.01693094022976165</v>
       </c>
       <c r="D64">
-        <v>-0.01674463475713339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03377326011868246</v>
+      </c>
+      <c r="E64">
+        <v>0.03934480381650291</v>
+      </c>
+      <c r="F64">
+        <v>0.04808269225926799</v>
+      </c>
+      <c r="G64">
+        <v>0.05723054725969796</v>
+      </c>
+      <c r="H64">
+        <v>0.01243933987586049</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1252423154986897</v>
+        <v>0.1312567008563991</v>
       </c>
       <c r="C65">
-        <v>0.06484483249806249</v>
+        <v>-0.04061971917449839</v>
       </c>
       <c r="D65">
-        <v>-0.004423969542169635</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02559598544449425</v>
+      </c>
+      <c r="E65">
+        <v>-0.006764688901307279</v>
+      </c>
+      <c r="F65">
+        <v>0.02817404731047144</v>
+      </c>
+      <c r="G65">
+        <v>0.07929602613537813</v>
+      </c>
+      <c r="H65">
+        <v>-0.201040578767065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1471546193950218</v>
+        <v>0.1517900408808876</v>
       </c>
       <c r="C66">
-        <v>0.09481721262435572</v>
+        <v>-0.01129169041117256</v>
       </c>
       <c r="D66">
-        <v>-0.09033953535363438</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1173227974069295</v>
+      </c>
+      <c r="E66">
+        <v>-0.02035828285331921</v>
+      </c>
+      <c r="F66">
+        <v>0.001721481287564355</v>
+      </c>
+      <c r="G66">
+        <v>0.07392901989515535</v>
+      </c>
+      <c r="H66">
+        <v>0.08639554486079683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.08324505190183874</v>
+        <v>0.08803228585738462</v>
       </c>
       <c r="C67">
-        <v>0.02108938840646237</v>
+        <v>0.01014774060508445</v>
       </c>
       <c r="D67">
-        <v>-0.01366452074917028</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03545021788948965</v>
+      </c>
+      <c r="E67">
+        <v>0.01801633369244462</v>
+      </c>
+      <c r="F67">
+        <v>0.0126646408733066</v>
+      </c>
+      <c r="G67">
+        <v>-0.01204508641717071</v>
+      </c>
+      <c r="H67">
+        <v>0.02585165594885839</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0481671227222642</v>
+        <v>0.06437689187632728</v>
       </c>
       <c r="C68">
-        <v>0.02808168907056985</v>
+        <v>-0.1640871252463173</v>
       </c>
       <c r="D68">
-        <v>0.2608926707529596</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2288430997308047</v>
+      </c>
+      <c r="E68">
+        <v>0.04472867441074355</v>
+      </c>
+      <c r="F68">
+        <v>0.01009944707040753</v>
+      </c>
+      <c r="G68">
+        <v>0.0006292451186531424</v>
+      </c>
+      <c r="H68">
+        <v>0.01307536898920956</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05745729784550867</v>
+        <v>0.05433163744597939</v>
       </c>
       <c r="C69">
-        <v>0.02719862269731386</v>
+        <v>-0.0004348071924467064</v>
       </c>
       <c r="D69">
-        <v>-0.0171699086160145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0237363344369912</v>
+      </c>
+      <c r="E69">
+        <v>0.0214805616304453</v>
+      </c>
+      <c r="F69">
+        <v>-0.01454146745108761</v>
+      </c>
+      <c r="G69">
+        <v>-0.002438786825410425</v>
+      </c>
+      <c r="H69">
+        <v>0.04051880291423256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.01086044290652401</v>
+        <v>0.03244708926418706</v>
       </c>
       <c r="C70">
-        <v>-0.003142621307522791</v>
+        <v>-0.002587043993565285</v>
       </c>
       <c r="D70">
-        <v>0.01087705297356638</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006019364788737099</v>
+      </c>
+      <c r="E70">
+        <v>-0.02502877443849806</v>
+      </c>
+      <c r="F70">
+        <v>-0.01122465851476106</v>
+      </c>
+      <c r="G70">
+        <v>-0.02493767545498912</v>
+      </c>
+      <c r="H70">
+        <v>-0.02925505404981902</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04483375370993205</v>
+        <v>0.07019722788926178</v>
       </c>
       <c r="C71">
-        <v>0.02453659157171369</v>
+        <v>-0.1792547836742037</v>
       </c>
       <c r="D71">
-        <v>0.2907587200202494</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2477207163428608</v>
+      </c>
+      <c r="E71">
+        <v>0.03947974368587379</v>
+      </c>
+      <c r="F71">
+        <v>0.03931900446542445</v>
+      </c>
+      <c r="G71">
+        <v>-0.0001368637813909452</v>
+      </c>
+      <c r="H71">
+        <v>0.01361070447998783</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.138366696095347</v>
+        <v>0.1412354079479788</v>
       </c>
       <c r="C72">
-        <v>0.0663415366853939</v>
+        <v>-0.03445150841303614</v>
       </c>
       <c r="D72">
-        <v>0.02649567171227405</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01102163286032309</v>
+      </c>
+      <c r="E72">
+        <v>-0.0375304942865588</v>
+      </c>
+      <c r="F72">
+        <v>-0.1615848861122452</v>
+      </c>
+      <c r="G72">
+        <v>0.1120459655191317</v>
+      </c>
+      <c r="H72">
+        <v>0.0002217016367703189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2776757337448808</v>
+        <v>0.2797445636341523</v>
       </c>
       <c r="C73">
-        <v>0.09025565650849324</v>
+        <v>0.02030633293494905</v>
       </c>
       <c r="D73">
-        <v>-0.03740180177355745</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09075706561478948</v>
+      </c>
+      <c r="E73">
+        <v>-0.2740162906225453</v>
+      </c>
+      <c r="F73">
+        <v>0.06017059680512464</v>
+      </c>
+      <c r="G73">
+        <v>-0.2461706229017424</v>
+      </c>
+      <c r="H73">
+        <v>-0.3751031047131551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07755352291659971</v>
+        <v>0.08903706910442291</v>
       </c>
       <c r="C74">
-        <v>0.07576862637046004</v>
+        <v>-0.03643280824571084</v>
       </c>
       <c r="D74">
-        <v>-0.002804017538177893</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05847731579557005</v>
+      </c>
+      <c r="E74">
+        <v>-0.00519609344107208</v>
+      </c>
+      <c r="F74">
+        <v>-0.000816525071043928</v>
+      </c>
+      <c r="G74">
+        <v>-0.04071942643508331</v>
+      </c>
+      <c r="H74">
+        <v>0.1298830680039771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1046454547994217</v>
+        <v>0.1032925771489137</v>
       </c>
       <c r="C75">
-        <v>0.05349130155986841</v>
+        <v>-0.009993792727612322</v>
       </c>
       <c r="D75">
-        <v>0.002651876232031075</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03110776178463874</v>
+      </c>
+      <c r="E75">
+        <v>0.000424629710238925</v>
+      </c>
+      <c r="F75">
+        <v>-0.001679613919869366</v>
+      </c>
+      <c r="G75">
+        <v>-0.0120142560044336</v>
+      </c>
+      <c r="H75">
+        <v>0.1108475299615968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1269094253732007</v>
+        <v>0.1369417653942964</v>
       </c>
       <c r="C76">
-        <v>0.07356208135367059</v>
+        <v>-0.02440479463970863</v>
       </c>
       <c r="D76">
-        <v>-0.01749765121474659</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06506101358853215</v>
+      </c>
+      <c r="E76">
+        <v>0.009159443849403179</v>
+      </c>
+      <c r="F76">
+        <v>0.03326026339234374</v>
+      </c>
+      <c r="G76">
+        <v>-0.004277537850968726</v>
+      </c>
+      <c r="H76">
+        <v>0.2519908245481311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1189810847429259</v>
+        <v>0.09882664684924405</v>
       </c>
       <c r="C77">
-        <v>0.02895737190765755</v>
+        <v>0.02883311853165928</v>
       </c>
       <c r="D77">
-        <v>-0.07785860991161175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03706767961389505</v>
+      </c>
+      <c r="E77">
+        <v>0.05985805232971445</v>
+      </c>
+      <c r="F77">
+        <v>0.06723294333560745</v>
+      </c>
+      <c r="G77">
+        <v>0.8057495275315142</v>
+      </c>
+      <c r="H77">
+        <v>-0.242756524165902</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.107418849271081</v>
+        <v>0.1503709126919191</v>
       </c>
       <c r="C78">
-        <v>0.05109493318704289</v>
+        <v>-0.01620971828552028</v>
       </c>
       <c r="D78">
-        <v>-0.07902331654058263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08799340107214679</v>
+      </c>
+      <c r="E78">
+        <v>0.04749055411135498</v>
+      </c>
+      <c r="F78">
+        <v>0.05744532908030948</v>
+      </c>
+      <c r="G78">
+        <v>0.03466242583281323</v>
+      </c>
+      <c r="H78">
+        <v>-0.1036579154996688</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1374974900838544</v>
+        <v>0.1430976454562271</v>
       </c>
       <c r="C79">
-        <v>0.06839231941764033</v>
+        <v>-0.01497427189543108</v>
       </c>
       <c r="D79">
-        <v>-0.02601522997799845</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05584557549659049</v>
+      </c>
+      <c r="E79">
+        <v>-0.01310994870185387</v>
+      </c>
+      <c r="F79">
+        <v>0.01796700312008699</v>
+      </c>
+      <c r="G79">
+        <v>0.01445762821430795</v>
+      </c>
+      <c r="H79">
+        <v>0.1718041683939168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03495133671074666</v>
+        <v>0.03863051177329454</v>
       </c>
       <c r="C80">
-        <v>0.02355357843485946</v>
+        <v>-0.009539046140838418</v>
       </c>
       <c r="D80">
-        <v>-0.02755491136693657</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01997502822261881</v>
+      </c>
+      <c r="E80">
+        <v>-0.04417042562767023</v>
+      </c>
+      <c r="F80">
+        <v>0.006475376087093783</v>
+      </c>
+      <c r="G80">
+        <v>-0.01226482697461633</v>
+      </c>
+      <c r="H80">
+        <v>0.02536101862490235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1250360409223083</v>
+        <v>0.128288303154784</v>
       </c>
       <c r="C81">
-        <v>0.07664039233968339</v>
+        <v>-0.02951678936508743</v>
       </c>
       <c r="D81">
-        <v>-0.009862554231595905</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04458964910409744</v>
+      </c>
+      <c r="E81">
+        <v>0.000226662861519903</v>
+      </c>
+      <c r="F81">
+        <v>0.02238725599121992</v>
+      </c>
+      <c r="G81">
+        <v>-0.01117853021547769</v>
+      </c>
+      <c r="H81">
+        <v>0.157541852877271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.128046714701446</v>
+        <v>0.1302958001565475</v>
       </c>
       <c r="C82">
-        <v>0.06881132140228149</v>
+        <v>-0.02534707323648685</v>
       </c>
       <c r="D82">
-        <v>-0.01072786020698775</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04540533724298611</v>
+      </c>
+      <c r="E82">
+        <v>-0.01704418273672858</v>
+      </c>
+      <c r="F82">
+        <v>0.03447829098892484</v>
+      </c>
+      <c r="G82">
+        <v>-0.01705673031497458</v>
+      </c>
+      <c r="H82">
+        <v>0.2415722618808077</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06525597340909493</v>
+        <v>0.08052015018141981</v>
       </c>
       <c r="C83">
-        <v>-0.0249474364521629</v>
+        <v>0.04078428498970273</v>
       </c>
       <c r="D83">
-        <v>-0.02835063704441485</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01009441653237488</v>
+      </c>
+      <c r="E83">
+        <v>0.01480252109360608</v>
+      </c>
+      <c r="F83">
+        <v>0.0317173033680893</v>
+      </c>
+      <c r="G83">
+        <v>-0.05022416006486397</v>
+      </c>
+      <c r="H83">
+        <v>-0.02098032026758658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03058075683424424</v>
+        <v>0.03328405607129413</v>
       </c>
       <c r="C84">
-        <v>0.04282307463898252</v>
+        <v>-0.0100540940991581</v>
       </c>
       <c r="D84">
-        <v>-0.02874754280552307</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0482746007941129</v>
+      </c>
+      <c r="E84">
+        <v>0.02296195102919342</v>
+      </c>
+      <c r="F84">
+        <v>-0.04083413629421536</v>
+      </c>
+      <c r="G84">
+        <v>-0.02377742437404226</v>
+      </c>
+      <c r="H84">
+        <v>0.02669876682388386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1158872186607812</v>
+        <v>0.1220421673830957</v>
       </c>
       <c r="C85">
-        <v>0.04551626111870161</v>
+        <v>-0.002757800638028619</v>
       </c>
       <c r="D85">
-        <v>-0.04290502991798366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0461058697788936</v>
+      </c>
+      <c r="E85">
+        <v>0.00966160258677492</v>
+      </c>
+      <c r="F85">
+        <v>0.03926823969417447</v>
+      </c>
+      <c r="G85">
+        <v>-0.009812547296248822</v>
+      </c>
+      <c r="H85">
+        <v>0.1475805452171773</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05055597913861256</v>
+        <v>0.05122779239164581</v>
       </c>
       <c r="C86">
-        <v>0.0291500823423746</v>
+        <v>0.005395987695525803</v>
       </c>
       <c r="D86">
-        <v>-0.06786503021226278</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04191885348475556</v>
+      </c>
+      <c r="E86">
+        <v>0.04364728793114134</v>
+      </c>
+      <c r="F86">
+        <v>0.02608711088490214</v>
+      </c>
+      <c r="G86">
+        <v>-0.01809687071393778</v>
+      </c>
+      <c r="H86">
+        <v>-0.04481492900397815</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1196803738889908</v>
+        <v>0.1253920863849909</v>
       </c>
       <c r="C87">
-        <v>0.08013330343714233</v>
+        <v>-0.01041762527766027</v>
       </c>
       <c r="D87">
-        <v>-0.06406506470841533</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08255694529158855</v>
+      </c>
+      <c r="E87">
+        <v>0.02818207456178238</v>
+      </c>
+      <c r="F87">
+        <v>0.0269430470412188</v>
+      </c>
+      <c r="G87">
+        <v>0.15253368175706</v>
+      </c>
+      <c r="H87">
+        <v>-0.06762839199891577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05544206303447309</v>
+        <v>0.06334762802316535</v>
       </c>
       <c r="C88">
-        <v>0.03797615002065961</v>
+        <v>-0.007302035721611739</v>
       </c>
       <c r="D88">
-        <v>-0.02681662434762649</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04838164057255973</v>
+      </c>
+      <c r="E88">
+        <v>-0.001183264791355318</v>
+      </c>
+      <c r="F88">
+        <v>0.02333486235855329</v>
+      </c>
+      <c r="G88">
+        <v>0.008890059045941555</v>
+      </c>
+      <c r="H88">
+        <v>0.0421850828954078</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07352471751499115</v>
+        <v>0.1088526890807413</v>
       </c>
       <c r="C89">
-        <v>0.04903378824491661</v>
+        <v>-0.2282439311754106</v>
       </c>
       <c r="D89">
-        <v>0.3243330790001757</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2881774654390294</v>
+      </c>
+      <c r="E89">
+        <v>0.05259029974608554</v>
+      </c>
+      <c r="F89">
+        <v>0.07660988281158677</v>
+      </c>
+      <c r="G89">
+        <v>-0.02815280211515982</v>
+      </c>
+      <c r="H89">
+        <v>0.02349957803454159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05837960462683713</v>
+        <v>0.08311131927662431</v>
       </c>
       <c r="C90">
-        <v>0.03213385967691645</v>
+        <v>-0.1755725881743434</v>
       </c>
       <c r="D90">
-        <v>0.2782793472613526</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2381242509868224</v>
+      </c>
+      <c r="E90">
+        <v>0.05197344800063281</v>
+      </c>
+      <c r="F90">
+        <v>0.03072262657276976</v>
+      </c>
+      <c r="G90">
+        <v>0.03466598241427328</v>
+      </c>
+      <c r="H90">
+        <v>-0.02029165542958631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09050263851186001</v>
+        <v>0.09019549086010896</v>
       </c>
       <c r="C91">
-        <v>0.05539979945664213</v>
+        <v>-0.01317914073756503</v>
       </c>
       <c r="D91">
-        <v>-0.004946445701275823</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03950365038286046</v>
+      </c>
+      <c r="E91">
+        <v>0.002634563192848479</v>
+      </c>
+      <c r="F91">
+        <v>0.005398349549554954</v>
+      </c>
+      <c r="G91">
+        <v>-0.02388856435446107</v>
+      </c>
+      <c r="H91">
+        <v>0.08888924917926176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05795974821243593</v>
+        <v>0.08241121222412331</v>
       </c>
       <c r="C92">
-        <v>0.04262034938714217</v>
+        <v>-0.2053130245855007</v>
       </c>
       <c r="D92">
-        <v>0.3344844529306311</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.270572834077309</v>
+      </c>
+      <c r="E92">
+        <v>0.04776720157460455</v>
+      </c>
+      <c r="F92">
+        <v>0.0370865002643205</v>
+      </c>
+      <c r="G92">
+        <v>0.004804465017676715</v>
+      </c>
+      <c r="H92">
+        <v>0.0253022570572347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05383490552964013</v>
+        <v>0.08145188701098525</v>
       </c>
       <c r="C93">
-        <v>0.04147577696922632</v>
+        <v>-0.1966644954065216</v>
       </c>
       <c r="D93">
-        <v>0.30846646829537</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2488314060365014</v>
+      </c>
+      <c r="E93">
+        <v>0.01678450874103682</v>
+      </c>
+      <c r="F93">
+        <v>0.03114523560653096</v>
+      </c>
+      <c r="G93">
+        <v>0.02047155646040045</v>
+      </c>
+      <c r="H93">
+        <v>0.004885855393920009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1300515948678818</v>
+        <v>0.1270116503629153</v>
       </c>
       <c r="C94">
-        <v>0.04130897468640773</v>
+        <v>0.01087027788453739</v>
       </c>
       <c r="D94">
-        <v>-0.03956304930575051</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04351728568763402</v>
+      </c>
+      <c r="E94">
+        <v>-0.02196705375041474</v>
+      </c>
+      <c r="F94">
+        <v>0.0183678606917285</v>
+      </c>
+      <c r="G94">
+        <v>-0.04481257413115769</v>
+      </c>
+      <c r="H94">
+        <v>0.1056275864385327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1189852144499643</v>
+        <v>0.1320916407038611</v>
       </c>
       <c r="C95">
-        <v>0.03617747450828872</v>
+        <v>0.01459212596905276</v>
       </c>
       <c r="D95">
-        <v>-0.06462314058454093</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0631464919128715</v>
+      </c>
+      <c r="E95">
+        <v>0.005409618941092616</v>
+      </c>
+      <c r="F95">
+        <v>0.05098885136613515</v>
+      </c>
+      <c r="G95">
+        <v>0.04920383123313213</v>
+      </c>
+      <c r="H95">
+        <v>-0.1207704509494525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2264096884621911</v>
+        <v>0.1908260664249438</v>
       </c>
       <c r="C97">
-        <v>0.06170588744541806</v>
+        <v>-0.008849753299117502</v>
       </c>
       <c r="D97">
-        <v>0.1275986891856864</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05592882021244829</v>
+      </c>
+      <c r="E97">
+        <v>-0.01352169749474798</v>
+      </c>
+      <c r="F97">
+        <v>-0.9387228751176021</v>
+      </c>
+      <c r="G97">
+        <v>0.0542498228692862</v>
+      </c>
+      <c r="H97">
+        <v>-0.02348907898933702</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2431831088781712</v>
+        <v>0.2757594261846079</v>
       </c>
       <c r="C98">
-        <v>0.06641720036041167</v>
+        <v>-0.00679145504700154</v>
       </c>
       <c r="D98">
-        <v>-0.01131042665318138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04869318015470298</v>
+      </c>
+      <c r="E98">
+        <v>-0.2189342513088271</v>
+      </c>
+      <c r="F98">
+        <v>0.02812723739236733</v>
+      </c>
+      <c r="G98">
+        <v>-0.2807770275507696</v>
+      </c>
+      <c r="H98">
+        <v>-0.1562639219673068</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4344622587335742</v>
+        <v>0.2774964358838589</v>
       </c>
       <c r="C99">
-        <v>-0.8826016264234124</v>
+        <v>0.8029060232794755</v>
       </c>
       <c r="D99">
-        <v>-0.00220556268835108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.4870851705310313</v>
+      </c>
+      <c r="E99">
+        <v>0.07104541229997571</v>
+      </c>
+      <c r="F99">
+        <v>0.07233229009189071</v>
+      </c>
+      <c r="G99">
+        <v>0.00717282202910496</v>
+      </c>
+      <c r="H99">
+        <v>0.06928815749788748</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04316200522144056</v>
+        <v>0.04894580771692587</v>
       </c>
       <c r="C101">
-        <v>0.04282044838525357</v>
+        <v>-0.02751581270336161</v>
       </c>
       <c r="D101">
-        <v>0.0008621368331109991</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0251058175478898</v>
+      </c>
+      <c r="E101">
+        <v>0.04854925574885337</v>
+      </c>
+      <c r="F101">
+        <v>0.02211997817539358</v>
+      </c>
+      <c r="G101">
+        <v>0.002279744355762249</v>
+      </c>
+      <c r="H101">
+        <v>0.08597411103178419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
